--- a/ToRun.xlsx
+++ b/ToRun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miramliu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miraliu/Desktop/PostDocCode/Multiexp_Simulations_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85EE52-9C65-FF47-8FF5-7C2C660DCDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02F83C3-931D-5349-9458-217D2E08AEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17620" yWindow="800" windowWidth="34200" windowHeight="21360" xr2:uid="{B99960E0-18A7-C740-8E74-0318937E564C}"/>
+    <workbookView xWindow="17300" yWindow="500" windowWidth="15780" windowHeight="16200" xr2:uid="{B99960E0-18A7-C740-8E74-0318937E564C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,5 +1344,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>